--- a/data/trans_bre/P37_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,92</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>29,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,9%</t>
+          <t>14,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>-9,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>64,16%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20,85%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32,11%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 4,06</t>
+          <t>-29,68; 15,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 28,95</t>
+          <t>5,42; 54,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 34,17</t>
+          <t>-14,47; 45,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 6,97</t>
+          <t>-15,23; 51,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 65,3</t>
+          <t>-39,41; 31,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 92,15</t>
+          <t>8,48; 215,49</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-21,27; 165,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-24,27; 223,43</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,08%</t>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,87%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-1,9%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 11,33</t>
+          <t>-7,63; 17,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 8,69</t>
+          <t>-13,2; 11,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 3,38</t>
+          <t>-13,82; 8,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 19,48</t>
+          <t>-12,21; 12,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 15,45</t>
+          <t>-11,9; 34,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 5,89</t>
+          <t>-19,21; 24,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-21,32; 15,83</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-19,54; 26,07</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,07</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>-6,38%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,86%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-5,03%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 8,43</t>
+          <t>-9,09; 12,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 0,08</t>
+          <t>-15,93; 6,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 0,55</t>
+          <t>-11,93; 10,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 13,19</t>
+          <t>-15,98; 9,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 0,1</t>
+          <t>-11,63; 21,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 0,86</t>
+          <t>-21,5; 11,19</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-16,56; 17,21</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; 16,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 4,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 4,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 3,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 7,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 8,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 6,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 10,62</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 10,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,17; 10,05</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 11,36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 18,21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-8,35; 19,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; 18,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-14,32; 22,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P37_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>29,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,64</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,05</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,91%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>64,16%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>20,85%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>32,11%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.036924508348559</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>25.32933922568644</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.505294332074076</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>18.88503473625344</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.032775402889043</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.5189644244848248</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1578644838544301</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4395169805199411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-29,68; 15,61</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 54,82</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,47; 45,14</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,23; 51,7</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-39,41; 31,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>8,48; 215,49</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-21,27; 165,03</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-24,27; 223,43</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-25.43403603413784</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.8457007135840905</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-16.6453165738407</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-9.655047914887396</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3497950129323535</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.01290715532688349</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2290201362766624</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1651678821137098</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>21.27824460635178</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>47.88792768333914</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>43.24795221798779</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>54.75551891392961</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.4511047573573674</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.620500720554659</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.431147860321841</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.538857840007914</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,64</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,46%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,79%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-4,87%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-1,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 17,34</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,2; 11,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-13,82; 8,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,21; 12,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,9; 34,59</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-19,21; 24,07</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-21,32; 15,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-19,54; 26,07</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.916399177245555</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.031419160901438</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.970109848945101</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.4098004226701368</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.06652037842259713</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.03420146722378187</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.03307944422262377</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.007420252458394606</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-6,38%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-1,86%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-5,03%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.401641896403823</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.41545776819405</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-12.89588693477621</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.59278572864493</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1091919067185006</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2012115932438009</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1951431887623065</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1843239404782046</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; 12,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,93; 6,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,93; 10,36</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-15,98; 9,33</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-11,63; 21,9</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-21,5; 11,19</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-16,56; 17,21</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-22,91; 16,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.48227390852329</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.43777272787826</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.964226196064994</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.14593408538823</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3502890434985829</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2086680205818463</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1833082738280914</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2826778951685913</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.136985467419686</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.475233756549613</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.5354884065961518</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.495071973726138</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.09327370140221665</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.06582072324845951</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.008061159200376755</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.05488053639708344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.791129010910257</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.42509696381183</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.32215745841051</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-16.57257816149106</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.09108129764810129</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.224236970312732</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1549065927737459</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.235439506604534</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.74164167755912</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.037265677565281</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.21738014775421</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.857844781517013</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3683920247373236</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1190609886627512</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1901979719380745</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1539549373376149</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,98%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 10,62</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,37; 10,74</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 10,05</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,77; 11,36</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 18,21</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; 19,52</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; 18,74</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-14,32; 22,67</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.146022885470446</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.974372614940755</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.4079807018783521</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.084526646242024</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.06679356271966087</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.01593018065272804</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.00666907974774572</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.03720356519756914</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.978319539656572</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.157322141252455</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.024076890715891</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-7.501726794500119</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.05919597702130473</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.0935371717491698</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1077601836109678</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1231947237860416</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.76675858153638</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.291123998012706</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.22228280221346</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.06008737415756</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2282038862646944</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1672255835317974</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1848008235046844</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2663566731780143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
